--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F40BED-146E-419B-ACDD-68EED528CC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287087DA-E915-42CD-8268-AFA0C2D0FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="125">
   <si>
     <t>Start Date</t>
   </si>
@@ -435,6 +435,24 @@
   </si>
   <si>
     <t>SR3-3</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Jeimmy</t>
+  </si>
+  <si>
+    <t>Dilan</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -1044,13 +1062,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1058,6 +1076,132 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1142,23 +1286,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1189,23 +1316,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1245,23 +1355,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1292,23 +1385,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1348,23 +1424,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1398,23 +1457,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1430,23 +1472,6 @@
           <color indexed="64"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2900,34 +2925,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3199,7 +3224,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3303,7 +3328,7 @@
         <v>91</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -3551,7 +3576,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3630,12 +3655,12 @@
       <c r="B4" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="67" t="s">
         <v>80</v>
       </c>
@@ -3649,12 +3674,12 @@
       <c r="B5" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="68" t="s">
         <v>80</v>
       </c>
@@ -3666,10 +3691,10 @@
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="69"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="69"/>
       <c r="H6" s="61" t="s">
         <v>95</v>
@@ -3753,12 +3778,12 @@
       <c r="B10" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="49" t="s">
         <v>81</v>
       </c>
@@ -3772,12 +3797,12 @@
       <c r="B11" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="52" t="s">
         <v>81</v>
       </c>
@@ -3791,12 +3816,12 @@
       <c r="B12" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="55" t="s">
         <v>81</v>
       </c>
@@ -3808,10 +3833,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="18"/>
       <c r="H13" s="61" t="s">
         <v>95</v>
@@ -3869,7 +3894,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="I15" s="20"/>
     </row>
@@ -3895,12 +3920,12 @@
       <c r="B17" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="49" t="s">
         <v>80</v>
       </c>
@@ -3914,12 +3939,12 @@
       <c r="B18" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="52" t="s">
         <v>80</v>
       </c>
@@ -3933,12 +3958,12 @@
       <c r="B19" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="55" t="s">
         <v>80</v>
       </c>
@@ -4068,18 +4093,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4174,12 +4200,12 @@
       <c r="B5" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="49" t="s">
         <v>79</v>
       </c>
@@ -4209,9 +4235,9 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="18"/>
       <c r="H7" s="63" t="s">
         <v>95</v>
@@ -4301,12 +4327,12 @@
       <c r="B12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="49" t="s">
         <v>80</v>
       </c>
@@ -4319,12 +4345,12 @@
       <c r="B13" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="55" t="s">
         <v>80</v>
       </c>
@@ -4505,7 +4531,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView topLeftCell="E8" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4673,7 +4699,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4696,7 +4722,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4719,7 +4745,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4742,7 +4768,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4765,7 +4791,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F12" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287087DA-E915-42CD-8268-AFA0C2D0FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465A746-52CC-4660-9135-D40EB9A258CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sprint2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sprint2" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="Sprint1Info" sheetId="2" r:id="rId4"/>
     <sheet name="Backlog1Table" sheetId="1" r:id="rId5"/>
     <sheet name="BurnDown1Table" sheetId="3" r:id="rId6"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
   <si>
     <t>Start Date</t>
   </si>
@@ -152,18 +152,6 @@
     <t>Enter a value for the utilization of the team</t>
   </si>
   <si>
-    <t>HU1</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>HU2</t>
-  </si>
-  <si>
-    <t>HU3</t>
-  </si>
-  <si>
     <t>HU4</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>HU10</t>
   </si>
   <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -299,33 +284,15 @@
     <t>Estimado</t>
   </si>
   <si>
-    <t>Crear un formulario para el ingreso de los datos de una compra</t>
-  </si>
-  <si>
     <t>Validación de datos</t>
   </si>
   <si>
-    <t>Crear un formulario para el ingreso de los datos del proveedor</t>
-  </si>
-  <si>
-    <t>Habilitar la Base de Datos para guardar a proveedores</t>
-  </si>
-  <si>
-    <t>Crear un formulario para el ingreso de los datos de la compra</t>
-  </si>
-  <si>
-    <t>Habilitar la Base de Datos para guardar los datos de la compra</t>
-  </si>
-  <si>
     <t>Diego</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Pedro</t>
-  </si>
-  <si>
     <t>visualizar los productos que se adquirieron en una compra</t>
   </si>
   <si>
@@ -407,9 +374,6 @@
     <t>Ver una notificación</t>
   </si>
   <si>
-    <t>ver a cuando se activo la bomba</t>
-  </si>
-  <si>
     <t>SR3</t>
   </si>
   <si>
@@ -425,18 +389,12 @@
     <t>SR2-2</t>
   </si>
   <si>
-    <t>SR2-3</t>
-  </si>
-  <si>
     <t>SR3-1</t>
   </si>
   <si>
     <t>SR3-2</t>
   </si>
   <si>
-    <t>SR3-3</t>
-  </si>
-  <si>
     <t>Sebastian</t>
   </si>
   <si>
@@ -453,6 +411,45 @@
   </si>
   <si>
     <t>Media</t>
+  </si>
+  <si>
+    <t>Registrar el día y la hora</t>
+  </si>
+  <si>
+    <t>revisar el día y la hora cuando se accionó la bomba</t>
+  </si>
+  <si>
+    <t>ver a cuando esta proximo a acabarse el agua del tanque</t>
+  </si>
+  <si>
+    <t>ver el estado actual de la tierra</t>
+  </si>
+  <si>
+    <t>SR4</t>
+  </si>
+  <si>
+    <t>SR5</t>
+  </si>
+  <si>
+    <t>Habilitar la Base de Datos para guardar los registros de activación</t>
+  </si>
+  <si>
+    <t>Crear un programa para la lectura del sensor de humedad de tierra</t>
+  </si>
+  <si>
+    <t>Crear un programa para la lectura del medidor de agua</t>
+  </si>
+  <si>
+    <t>Crear un programa para la mostrar un mensaje de que el agua del tanque esta proximo a acabarse</t>
+  </si>
+  <si>
+    <t>Crear un programa para la mostrar un mensaje del estado actual de la tierra</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -580,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -682,51 +679,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -952,12 +904,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,71 +1009,79 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1809,37 +1821,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>41.130434782608695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>39.260869565217391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>37.391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>35.521739130434781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>33.652173913043477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>31.782608695652172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>29.913043478260867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>28.043478260869563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>26.173913043478262</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>24.304347826086957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,37 +1956,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,37 +2099,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,10 +3233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3235,335 +3247,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="G1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="44" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="C5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="D6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="36" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>89</v>
+      <c r="H15" s="78" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3575,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3584,25 +3654,25 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>10</v>
@@ -3611,121 +3681,123 @@
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="50" t="s">
-        <v>72</v>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="46" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="53">
-        <v>5</v>
+      <c r="B4" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="49">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
-      <c r="B5" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="56">
-        <v>5</v>
+      <c r="B5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="52">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="65">
+      <c r="B6" s="65"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="61">
         <f>SUM(I4:I5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>10</v>
@@ -3734,140 +3806,134 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
-      <c r="B9" s="69"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="69"/>
+        <v>65</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="65"/>
       <c r="I9" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="47" t="s">
-        <v>113</v>
+      <c r="B10" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="57">
-        <v>7</v>
+        <v>119</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="53">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
-      <c r="B11" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53">
-        <v>7</v>
+      <c r="B11" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
-      <c r="B12" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="58">
-        <v>6</v>
-      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="65">
+      <c r="H13" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="61">
         <f>SUM(I10:I12)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>10</v>
@@ -3876,101 +3942,95 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
       <c r="C16" s="22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="47" t="s">
-        <v>116</v>
+      <c r="B17" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="57">
+        <v>120</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53">
-        <v>4</v>
+      <c r="B18" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56">
-        <v>2</v>
-      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
@@ -3980,103 +4040,333 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="65">
+      <c r="H20" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="61">
         <f>SUM(I17:I19)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
+      <c r="B21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B22" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
-      <c r="H23" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="60">
-        <f>I6+I13+I20+I26+I33+I39+I46+I53+I60+I66</f>
-        <v>40</v>
+      <c r="B23" s="69"/>
+      <c r="C23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="69"/>
+      <c r="I23" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
+      <c r="B24" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="I24" s="53">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="66"/>
+      <c r="I25" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="50"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="61">
+        <f>SUM(I24:I26)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
+      <c r="B28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="69"/>
+      <c r="I30" s="22" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
+      <c r="B31" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="68"/>
+      <c r="I31" s="53">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="66"/>
+      <c r="I32" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="50"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="61">
+        <f>SUM(I31:I33)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H36" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="56">
+        <f>I6+I13+I20+I27+I34</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -4092,17 +4382,23 @@
       <c r="A52" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4132,25 +4428,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>10</v>
@@ -4158,91 +4454,91 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="57">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56">
+      <c r="B6" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="64">
+      <c r="H7" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="60">
         <f>SUM(I5:I6)</f>
         <v>20</v>
       </c>
@@ -4259,25 +4555,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>10</v>
@@ -4285,94 +4581,94 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18"/>
       <c r="C11" s="22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
-        <v>98</v>
+      <c r="B12" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="57">
+        <v>74</v>
+      </c>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="53">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56">
+      <c r="B13" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="62">
+      <c r="H14" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="58">
         <f>SUM(I12:I13)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H15" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="59">
+      <c r="H15" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="55">
         <f>I7+I14</f>
         <v>40</v>
       </c>
@@ -4392,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4411,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>43271</v>
+        <v>44545</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -4419,7 +4715,7 @@
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
-        <v>43284</v>
+        <v>44576</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -4431,7 +4727,7 @@
       </c>
       <c r="B4" s="3">
         <f>NETWORKDAYS(B2,B3)</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -4452,7 +4748,7 @@
       </c>
       <c r="B6" s="3">
         <f>B4-B5</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -4470,7 +4766,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -4482,7 +4778,7 @@
       </c>
       <c r="B9" s="3">
         <f>(B4-B5)*B8*B7*8</f>
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -4492,7 +4788,7 @@
       </c>
       <c r="B10" s="3">
         <f>IFERROR(B9/B4,0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -4530,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4578,19 +4874,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="F3" s="11">
-        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
@@ -4601,19 +4898,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="11">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F4" s="11">
-        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>20</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
@@ -4624,19 +4922,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="F5" s="11">
-        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
@@ -4647,19 +4946,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F6" s="11">
-        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>10</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
@@ -4670,21 +4970,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F7" s="11">
-        <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
-        <v>10</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -4696,10 +4997,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4707,7 +5008,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -4719,10 +5020,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4730,7 +5031,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -4742,10 +5043,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4753,7 +5054,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -4765,10 +5066,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4776,7 +5077,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -4788,10 +5089,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F12" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -4805,11 +5106,11 @@
       </c>
       <c r="C13" s="3">
         <f>SUBTOTAL(109,SprintBacklog[Estimated Hours])</f>
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3">
         <f>SUBTOTAL(109,SprintBacklog[Remaining Hours])</f>
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +5131,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4861,15 +5162,15 @@
       </c>
       <c r="B3" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="C3" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="D3" s="15">
         <f>Table3[[#This Row],[Target Burn Down]]</f>
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -4879,14 +5180,14 @@
       </c>
       <c r="B4" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>144</v>
+        <v>41.130434782608695</v>
       </c>
       <c r="C4" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="D4" s="16">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -4896,14 +5197,14 @@
       </c>
       <c r="B5" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>128</v>
+        <v>39.260869565217391</v>
       </c>
       <c r="C5" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D5" s="16">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -4913,14 +5214,14 @@
       </c>
       <c r="B6" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>112</v>
+        <v>37.391304347826086</v>
       </c>
       <c r="C6" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="D6" s="16">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -4930,14 +5231,14 @@
       </c>
       <c r="B7" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>96</v>
+        <v>35.521739130434781</v>
       </c>
       <c r="C7" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D7" s="16">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E7" s="15"/>
     </row>
@@ -4947,14 +5248,14 @@
       </c>
       <c r="B8" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>80</v>
+        <v>33.652173913043477</v>
       </c>
       <c r="C8" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D8" s="16">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -4964,14 +5265,14 @@
       </c>
       <c r="B9" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>64</v>
+        <v>31.782608695652172</v>
       </c>
       <c r="C9" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D9" s="16">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E9" s="15"/>
     </row>
@@ -4981,14 +5282,14 @@
       </c>
       <c r="B10" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>48</v>
+        <v>29.913043478260867</v>
       </c>
       <c r="C10" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D10" s="16">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E10" s="15"/>
     </row>
@@ -4998,14 +5299,14 @@
       </c>
       <c r="B11" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>32</v>
+        <v>28.043478260869563</v>
       </c>
       <c r="C11" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D11" s="16">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -5015,14 +5316,14 @@
       </c>
       <c r="B12" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>16</v>
+        <v>26.173913043478262</v>
       </c>
       <c r="C12" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D12" s="16">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -5032,14 +5333,14 @@
       </c>
       <c r="B13" s="15">
         <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
-        <v>0</v>
+        <v>24.304347826086957</v>
       </c>
       <c r="C13" s="15">
         <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="16">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E13" s="15"/>
     </row>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465A746-52CC-4660-9135-D40EB9A258CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C628B6D0-AE84-4374-80B3-47E0B227AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="125">
   <si>
     <t>Start Date</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Blocked</t>
+  </si>
+  <si>
+    <t>slkngsklngsd</t>
   </si>
 </sst>
 </file>
@@ -1066,14 +1069,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1082,138 +1077,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1298,6 +1175,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1328,6 +1223,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1367,6 +1280,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1397,6 +1328,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1436,6 +1385,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1469,6 +1436,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1484,6 +1469,24 @@
           <color indexed="64"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2937,34 +2940,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3559,25 +3562,25 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="75" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="32" t="s">
@@ -3585,7 +3588,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="76" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -3606,12 +3609,12 @@
       <c r="G14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="70" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="76" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -3632,7 +3635,7 @@
       <c r="G15" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="70" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3727,12 +3730,12 @@
       <c r="B4" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="63" t="s">
         <v>107</v>
       </c>
@@ -3746,12 +3749,12 @@
       <c r="B5" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="64" t="s">
         <v>107</v>
       </c>
@@ -3763,10 +3766,10 @@
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="65"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="65"/>
       <c r="H6" s="57" t="s">
         <v>84</v>
@@ -3839,7 +3842,7 @@
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="77" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="65"/>
@@ -3852,12 +3855,12 @@
       <c r="B10" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="66" t="s">
         <v>105</v>
       </c>
@@ -3871,12 +3874,12 @@
       <c r="B11" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="66" t="s">
         <v>105</v>
       </c>
@@ -3888,10 +3891,10 @@
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="50"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
       <c r="I12" s="54"/>
@@ -3899,10 +3902,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>84</v>
@@ -3988,12 +3991,12 @@
       <c r="B17" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="45" t="s">
         <v>108</v>
       </c>
@@ -4007,12 +4010,12 @@
       <c r="B18" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="66" t="s">
         <v>108</v>
       </c>
@@ -4024,10 +4027,10 @@
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="52"/>
@@ -4124,12 +4127,12 @@
       <c r="B24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="68" t="s">
         <v>106</v>
       </c>
@@ -4143,12 +4146,12 @@
       <c r="B25" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="66" t="s">
         <v>106</v>
       </c>
@@ -4160,10 +4163,10 @@
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="50"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
       <c r="G26" s="67"/>
       <c r="H26" s="67"/>
       <c r="I26" s="52"/>
@@ -4260,12 +4263,12 @@
       <c r="B31" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="68" t="s">
         <v>109</v>
       </c>
@@ -4279,12 +4282,12 @@
       <c r="B32" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="66" t="s">
         <v>109</v>
       </c>
@@ -4296,10 +4299,10 @@
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
       <c r="I33" s="52"/>
@@ -4383,22 +4386,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4496,12 +4499,12 @@
       <c r="B5" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="45" t="s">
         <v>69</v>
       </c>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>84</v>
@@ -4623,12 +4626,12 @@
       <c r="B12" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="45" t="s">
         <v>70</v>
       </c>
@@ -4641,12 +4644,12 @@
       <c r="B13" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="51" t="s">
         <v>70</v>
       </c>
@@ -4689,7 +4692,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4790,7 +4793,9 @@
         <f>IFERROR(B9/B4,0)</f>
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" s="2"/>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Documentos\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C628B6D0-AE84-4374-80B3-47E0B227AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22260" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="TotalHours">SprintBacklog[[#Totals],[Estimated Hours]]</definedName>
     <definedName name="WorkingDays">Sprint1Info!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PowerUps for Excel</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
   <si>
     <t>Start Date</t>
   </si>
@@ -137,21 +136,9 @@
     <t>Actual Burn Down</t>
   </si>
   <si>
-    <t>Enter the start date for the sprint</t>
-  </si>
-  <si>
-    <t>Enter the ending date for the sprint</t>
-  </si>
-  <si>
-    <t>If there are any holidays or other special days occuring during the sprint, enter that number here</t>
-  </si>
-  <si>
     <t>Utilization</t>
   </si>
   <si>
-    <t>Enter a value for the utilization of the team</t>
-  </si>
-  <si>
     <t>HU4</t>
   </si>
   <si>
@@ -452,13 +439,28 @@
     <t>Blocked</t>
   </si>
   <si>
-    <t>slkngsklngsd</t>
+    <t>Enter the start date for the sprint.</t>
+  </si>
+  <si>
+    <t>Enter the ending date for the sprint.</t>
+  </si>
+  <si>
+    <t>If there are any holidays or other special days occuring during the sprint, enter that number here.</t>
+  </si>
+  <si>
+    <t>slkngsklngsd.</t>
+  </si>
+  <si>
+    <t>Enter a value for the utilization of the team.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1186,7 +1188,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI Light"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1238,7 +1239,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI Light"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1291,7 +1291,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI Light"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1343,7 +1342,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI Light"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1396,7 +1394,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI Light"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1447,7 +1444,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI Light"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1484,7 +1480,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI Light"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1580,7 +1575,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1702,6 +1697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1727,7 +1723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2198,7 +2194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="389444080"/>
@@ -2257,7 +2253,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="389449568"/>
@@ -2274,6 +2270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2299,7 +2296,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2329,7 +2326,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2927,47 +2924,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:B10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:B10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="26" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="26" dataDxfId="25"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="24" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:G12"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
+    <tableColumn id="1" name="Work Day" dataDxfId="3"/>
+    <tableColumn id="2" name="Target Burn Down" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
+    <tableColumn id="3" name="Forecast Burn Down" dataDxfId="1">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
+    <tableColumn id="4" name="Actual Burn Down" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3235,408 +3232,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="51.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="F1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="42" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="C5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="D6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H6" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="23" t="s">
+    <row r="7" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="C14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
+      <c r="F15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>80</v>
-      </c>
       <c r="G15" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3645,125 +3647,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H1" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
       <c r="G3" s="44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
       <c r="G4" s="63" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="49">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
       <c r="G5" s="64" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="52">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="65"/>
       <c r="C6" s="82"/>
@@ -3772,123 +3774,123 @@
       <c r="F6" s="82"/>
       <c r="G6" s="65"/>
       <c r="H6" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I6" s="61">
         <f>SUM(I4:I5)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H7" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="65"/>
       <c r="C9" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="77" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D10" s="82"/>
       <c r="E10" s="82"/>
       <c r="F10" s="82"/>
       <c r="G10" s="66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="53">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
       <c r="F11" s="83"/>
       <c r="G11" s="66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="50"/>
       <c r="C12" s="78"/>
@@ -3899,7 +3901,7 @@
       <c r="H12" s="51"/>
       <c r="I12" s="54"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
       <c r="C13" s="84"/>
@@ -3908,123 +3910,123 @@
       <c r="F13" s="84"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I13" s="61">
         <f>SUM(I10:I12)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H14" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
       <c r="C16" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
       <c r="F17" s="82"/>
       <c r="G17" s="45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
       <c r="F18" s="83"/>
       <c r="G18" s="66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="50"/>
       <c r="C19" s="78"/>
@@ -4035,7 +4037,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4044,123 +4046,123 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I20" s="61">
         <f>SUM(I17:I19)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H21" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="69"/>
       <c r="C23" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
       <c r="F23" s="69"/>
       <c r="G23" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="68" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
       <c r="G25" s="66" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="50"/>
       <c r="C26" s="78"/>
@@ -4171,7 +4173,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="52"/>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4180,123 +4182,123 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I27" s="61">
         <f>SUM(I24:I26)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H28" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="69"/>
       <c r="C30" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
       <c r="F30" s="69"/>
       <c r="G30" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H30" s="69"/>
       <c r="I30" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="82"/>
       <c r="F31" s="82"/>
       <c r="G31" s="68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" s="83"/>
       <c r="E32" s="83"/>
       <c r="F32" s="83"/>
       <c r="G32" s="66" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H32" s="66"/>
       <c r="I32" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="50"/>
       <c r="C33" s="78"/>
@@ -4307,7 +4309,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="52"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4316,72 +4318,72 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I34" s="61">
         <f>SUM(I31:I33)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
     </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="H36" s="56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I36" s="56">
         <f>I6+I13+I20+I27+I34</f>
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
     </row>
   </sheetData>
@@ -4409,16 +4411,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4429,109 +4431,109 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" s="82"/>
       <c r="E5" s="82"/>
       <c r="F5" s="82"/>
       <c r="G5" s="45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="53">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="85"/>
       <c r="D7" s="84"/>
@@ -4539,14 +4541,14 @@
       <c r="F7" s="84"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" s="60">
         <f>SUM(I5:I6)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -4556,120 +4558,120 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="82"/>
       <c r="E12" s="82"/>
       <c r="F12" s="82"/>
       <c r="G12" s="45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="53">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I14" s="58">
         <f>SUM(I12:I13)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I15" s="55">
         <f>I7+I14</f>
@@ -4688,24 +4690,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4713,18 +4715,18 @@
         <v>44545</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>44576</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4734,7 +4736,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4742,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -4755,7 +4757,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -4764,18 +4766,18 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8">
         <v>0.25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4785,7 +4787,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -4794,28 +4796,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
     </row>
   </sheetData>
@@ -4828,26 +4830,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="9.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4882,19 +4884,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F3" s="11">
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -4906,19 +4908,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" s="11">
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -4930,19 +4932,19 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" s="11">
         <v>7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -4954,19 +4956,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" s="11">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -4978,19 +4980,19 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="11">
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -5002,10 +5004,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5013,7 +5015,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -5025,10 +5027,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5036,7 +5038,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -5048,10 +5050,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5059,7 +5061,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -5071,10 +5073,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5082,7 +5084,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -5094,10 +5096,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F12" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5105,7 +5107,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5120,7 +5122,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12">
       <formula1>"In Progress, Completed, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5132,21 +5134,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="7.88671875" style="3"/>
+    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="7.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -5161,7 +5163,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -5179,7 +5181,7 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5196,7 +5198,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5213,7 +5215,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5230,7 +5232,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5247,7 +5249,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5264,7 +5266,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -5281,7 +5283,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5298,7 +5300,7 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -5315,7 +5317,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5332,7 +5334,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Documentos\GitHub\proyecto-riego\Backlog_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE3DFD-4657-41D8-A595-F4E54BC19FC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22260" windowHeight="13170"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22260" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -31,24 +32,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PowerUps for Excel</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
   <si>
     <t>Start Date</t>
   </si>
@@ -455,12 +449,15 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Validación de datos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1081,11 +1078,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,6 +1090,357 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1173,350 +1521,6 @@
         <name val="Segoe UI Light"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1697,7 +1701,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1723,7 +1726,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2194,7 +2197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="389444080"/>
@@ -2253,7 +2256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="389449568"/>
@@ -2270,7 +2273,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2296,7 +2298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2326,7 +2328,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2924,47 +2926,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:B10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:B10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" headerRowDxfId="26" dataDxfId="25"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="26" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="24" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="12" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Work Day" dataDxfId="3"/>
-    <tableColumn id="2" name="Target Burn Down" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="16">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Forecast Burn Down" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="15">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Actual Burn Down" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3232,10 +3234,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -3647,11 +3649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3732,12 +3734,12 @@
       <c r="B4" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="63" t="s">
         <v>103</v>
       </c>
@@ -3857,7 +3859,7 @@
       <c r="B10" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="81" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="82"/>
@@ -3876,12 +3878,12 @@
       <c r="B11" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="66" t="s">
         <v>101</v>
       </c>
@@ -3904,10 +3906,10 @@
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>80</v>
@@ -3993,7 +3995,7 @@
       <c r="B17" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="81" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="82"/>
@@ -4012,12 +4014,12 @@
       <c r="B18" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="66" t="s">
         <v>104</v>
       </c>
@@ -4129,12 +4131,12 @@
       <c r="B24" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="68" t="s">
         <v>102</v>
       </c>
@@ -4148,12 +4150,12 @@
       <c r="B25" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="66" t="s">
         <v>102</v>
       </c>
@@ -4265,7 +4267,7 @@
       <c r="B31" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="81" t="s">
         <v>117</v>
       </c>
       <c r="D31" s="82"/>
@@ -4284,12 +4286,12 @@
       <c r="B32" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
+      <c r="C32" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="66" t="s">
         <v>105</v>
       </c>
@@ -4388,22 +4390,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4411,7 +4413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4501,7 +4503,7 @@
       <c r="B5" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="81" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="82"/>
@@ -4536,9 +4538,9 @@
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>80</v>
@@ -4628,7 +4630,7 @@
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="81" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="82"/>
@@ -4690,7 +4692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4830,11 +4832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5122,7 +5124,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"In Progress, Completed, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5134,7 +5136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE3DFD-4657-41D8-A595-F4E54BC19FC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A910BA7-38D6-41F6-91AA-D59B81B2228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22260" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -27,10 +27,19 @@
     <definedName name="TotalHours">SprintBacklog[[#Totals],[Estimated Hours]]</definedName>
     <definedName name="WorkingDays">Sprint1Info!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -412,9 +421,6 @@
     <t>SR5</t>
   </si>
   <si>
-    <t>Habilitar la Base de Datos para guardar los registros de activación</t>
-  </si>
-  <si>
     <t>Crear un programa para la lectura del sensor de humedad de tierra</t>
   </si>
   <si>
@@ -452,6 +458,9 @@
   </si>
   <si>
     <t>Validación de datos.</t>
+  </si>
+  <si>
+    <t>Crear programa para establecer condicion de estacion del año</t>
   </si>
 </sst>
 </file>
@@ -1078,11 +1087,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,357 +1099,6 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1521,6 +1179,357 @@
         <name val="Segoe UI Light"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1726,7 +1735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2197,7 +2206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="389444080"/>
@@ -2256,7 +2265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="389449568"/>
@@ -2298,7 +2307,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2328,7 +2337,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2939,34 +2948,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="12" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="16">
-      <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="15">
-      <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
+      <calculatedColumnFormula>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3241,14 +3250,14 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>27</v>
       </c>
@@ -3274,7 +3283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
         <v>85</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
         <v>90</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>94</v>
       </c>
@@ -3352,7 +3361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
         <v>20</v>
       </c>
@@ -3378,7 +3387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="33" t="s">
         <v>22</v>
       </c>
@@ -3430,7 +3439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="33" t="s">
         <v>23</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
         <v>24</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33" t="s">
         <v>25</v>
       </c>
@@ -3508,7 +3517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34" t="s">
         <v>26</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
         <v>72</v>
       </c>
@@ -3560,7 +3569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="71" t="s">
         <v>73</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="76" t="s">
         <v>111</v>
       </c>
@@ -3612,7 +3621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="76" t="s">
         <v>112</v>
       </c>
@@ -3638,9 +3647,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3653,12 +3662,12 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:F32"/>
+      <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="17" t="s">
         <v>27</v>
@@ -3685,7 +3694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
         <v>85</v>
@@ -3712,7 +3721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44" t="s">
@@ -3729,17 +3738,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="C4" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="63" t="s">
         <v>103</v>
       </c>
@@ -3748,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="50" t="s">
         <v>96</v>
@@ -3767,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="65"/>
       <c r="C6" s="82"/>
@@ -3783,7 +3792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
         <v>27</v>
@@ -3810,7 +3819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>90</v>
@@ -3837,7 +3846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="65"/>
       <c r="C9" s="22" t="s">
@@ -3854,13 +3863,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>115</v>
+      <c r="C10" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="D10" s="82"/>
       <c r="E10" s="82"/>
@@ -3873,17 +3882,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="66" t="s">
         <v>101</v>
       </c>
@@ -3892,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="50"/>
       <c r="C12" s="78"/>
@@ -3903,13 +3912,13 @@
       <c r="H12" s="51"/>
       <c r="I12" s="54"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>80</v>
@@ -3919,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="17" t="s">
         <v>27</v>
@@ -3946,7 +3955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
         <v>94</v>
@@ -3973,7 +3982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
       <c r="C16" s="22" t="s">
@@ -3990,13 +3999,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="81" t="s">
-        <v>116</v>
+      <c r="C17" s="80" t="s">
+        <v>115</v>
       </c>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -4009,17 +4018,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="66" t="s">
         <v>104</v>
       </c>
@@ -4028,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="50"/>
       <c r="C19" s="78"/>
@@ -4039,7 +4048,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4055,7 +4064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="17" t="s">
         <v>27</v>
@@ -4082,7 +4091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>111</v>
@@ -4109,7 +4118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="69"/>
       <c r="C23" s="22" t="s">
@@ -4126,17 +4135,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
+      <c r="C24" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="68" t="s">
         <v>102</v>
       </c>
@@ -4145,17 +4154,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="66" t="s">
         <v>102</v>
       </c>
@@ -4164,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="50"/>
       <c r="C26" s="78"/>
@@ -4175,7 +4184,7 @@
       <c r="H26" s="67"/>
       <c r="I26" s="52"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4191,7 +4200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="17" t="s">
         <v>27</v>
@@ -4218,7 +4227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
         <v>112</v>
@@ -4245,7 +4254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="69"/>
       <c r="C30" s="22" t="s">
@@ -4262,13 +4271,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="81" t="s">
-        <v>117</v>
+      <c r="C31" s="80" t="s">
+        <v>116</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="82"/>
@@ -4281,17 +4290,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="C32" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="66" t="s">
         <v>105</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
       <c r="B33" s="50"/>
       <c r="C33" s="78"/>
@@ -4311,7 +4320,7 @@
       <c r="H33" s="67"/>
       <c r="I33" s="52"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4327,10 +4336,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
     </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="H36" s="56" t="s">
         <v>79</v>
@@ -4340,72 +4349,72 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4420,9 +4429,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4433,7 +4442,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
@@ -4459,7 +4468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>72</v>
       </c>
@@ -4483,7 +4492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="22" t="s">
         <v>61</v>
@@ -4499,11 +4508,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="82"/>
@@ -4517,7 +4526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="50" t="s">
         <v>82</v>
       </c>
@@ -4535,12 +4544,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>80</v>
@@ -4550,7 +4559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -4560,7 +4569,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
@@ -4586,7 +4595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>73</v>
       </c>
@@ -4610,7 +4619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18"/>
       <c r="C11" s="22" t="s">
         <v>61</v>
@@ -4626,11 +4635,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="80" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="82"/>
@@ -4644,7 +4653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="50" t="s">
         <v>84</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="57" t="s">
         <v>80</v>
       </c>
@@ -4671,7 +4680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="55" t="s">
         <v>79</v>
       </c>
@@ -4699,17 +4708,17 @@
       <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4717,18 +4726,18 @@
         <v>44545</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
         <v>44576</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4738,7 +4747,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4746,10 +4755,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -4759,7 +4768,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -4768,7 +4777,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -4776,10 +4785,10 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4789,7 +4798,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -4798,28 +4807,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
     </row>
   </sheetData>
@@ -4839,19 +4848,19 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="9.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4895,10 +4904,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -4919,10 +4928,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -4943,10 +4952,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -4967,10 +4976,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -4991,10 +5000,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -5017,7 +5026,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -5040,7 +5049,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -5063,7 +5072,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -5086,7 +5095,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -5109,7 +5118,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5143,14 +5152,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="7.85546875" style="3"/>
+    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="7.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -5165,16 +5174,16 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>43</v>
       </c>
       <c r="C3" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>43</v>
       </c>
       <c r="D3" s="15">
@@ -5183,16 +5192,16 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>41.130434782608695</v>
       </c>
       <c r="C4" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>39</v>
       </c>
       <c r="D4" s="16">
@@ -5200,16 +5209,16 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>39.260869565217391</v>
       </c>
       <c r="C5" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>35</v>
       </c>
       <c r="D5" s="16">
@@ -5217,16 +5226,16 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>37.391304347826086</v>
       </c>
       <c r="C6" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>31</v>
       </c>
       <c r="D6" s="16">
@@ -5234,16 +5243,16 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>35.521739130434781</v>
       </c>
       <c r="C7" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>27</v>
       </c>
       <c r="D7" s="16">
@@ -5251,16 +5260,16 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>33.652173913043477</v>
       </c>
       <c r="C8" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>23</v>
       </c>
       <c r="D8" s="16">
@@ -5268,16 +5277,16 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>31.782608695652172</v>
       </c>
       <c r="C9" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>19</v>
       </c>
       <c r="D9" s="16">
@@ -5285,16 +5294,16 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>29.913043478260867</v>
       </c>
       <c r="C10" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>15</v>
       </c>
       <c r="D10" s="16">
@@ -5302,16 +5311,16 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>28.043478260869563</v>
       </c>
       <c r="C11" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>11</v>
       </c>
       <c r="D11" s="16">
@@ -5319,16 +5328,16 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>26.173913043478262</v>
       </c>
       <c r="C12" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>7</v>
       </c>
       <c r="D12" s="16">
@@ -5336,16 +5345,16 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="15">
-        <f>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</f>
+        <f>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</f>
         <v>24.304347826086957</v>
       </c>
       <c r="C13" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
+        <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
         <v>3</v>
       </c>
       <c r="D13" s="16">

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A910BA7-38D6-41F6-91AA-D59B81B2228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27949560-ACFD-4A9E-A1AA-4EA168367992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3661,7 +3661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27949560-ACFD-4A9E-A1AA-4EA168367992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D09D69-730D-48F8-A45B-878AF3983484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="131">
   <si>
     <t>Start Date</t>
   </si>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>Crear programa para establecer condicion de estacion del año</t>
+  </si>
+  <si>
+    <t>SR4-1</t>
+  </si>
+  <si>
+    <t>SR4-2</t>
+  </si>
+  <si>
+    <t>SR5-1</t>
+  </si>
+  <si>
+    <t>SR5-2</t>
   </si>
 </sst>
 </file>
@@ -1087,11 +1099,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3661,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3743,12 +3755,12 @@
       <c r="B4" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="63" t="s">
         <v>103</v>
       </c>
@@ -3868,7 +3880,7 @@
       <c r="B10" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="81" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="82"/>
@@ -3887,12 +3899,12 @@
       <c r="B11" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="66" t="s">
         <v>101</v>
       </c>
@@ -3915,10 +3927,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>80</v>
@@ -4004,7 +4016,7 @@
       <c r="B17" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="81" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="82"/>
@@ -4023,12 +4035,12 @@
       <c r="B18" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="66" t="s">
         <v>104</v>
       </c>
@@ -4138,14 +4150,14 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="68" t="s">
         <v>102</v>
       </c>
@@ -4157,14 +4169,14 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="66" t="s">
         <v>102</v>
       </c>
@@ -4274,9 +4286,9 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="81" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="82"/>
@@ -4293,14 +4305,14 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="66" t="s">
         <v>105</v>
       </c>
@@ -4399,22 +4411,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4512,7 +4524,7 @@
       <c r="B5" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="81" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="82"/>
@@ -4547,9 +4559,9 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>80</v>
@@ -4639,7 +4651,7 @@
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="81" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="82"/>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D09D69-730D-48F8-A45B-878AF3983484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F8EB1E-7462-415D-8313-EADD1D47AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F8EB1E-7462-415D-8313-EADD1D47AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554C381-10D1-463C-B4BA-3A76CDC488A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554C381-10D1-463C-B4BA-3A76CDC488A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02404A1E-F1E9-42D9-976F-12DB7975DE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sprint2" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint1Info" sheetId="2" r:id="rId4"/>
     <sheet name="Backlog1Table" sheetId="1" r:id="rId5"/>
     <sheet name="BurnDown1Table" sheetId="3" r:id="rId6"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
   <si>
     <t>Start Date</t>
   </si>
@@ -473,6 +473,21 @@
   </si>
   <si>
     <t>SR5-2</t>
+  </si>
+  <si>
+    <t>SR6</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>Verificar la estacion del año</t>
+  </si>
+  <si>
+    <t>saber a que hora es más adecuado regar</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
   </si>
 </sst>
 </file>
@@ -600,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -979,12 +994,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,12 +1143,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3258,13 +3307,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="51.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
@@ -3303,7 +3353,7 @@
         <v>92</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>87</v>
@@ -3318,7 +3368,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
@@ -3329,7 +3379,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>91</v>
@@ -3344,7 +3394,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
@@ -3657,6 +3707,32 @@
       </c>
       <c r="H15" s="70" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
@@ -3673,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3755,12 +3831,12 @@
       <c r="B4" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="63" t="s">
         <v>103</v>
       </c>
@@ -3880,7 +3956,7 @@
       <c r="B10" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="82"/>
@@ -3899,12 +3975,12 @@
       <c r="B11" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="66" t="s">
         <v>101</v>
       </c>
@@ -3927,10 +4003,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>80</v>
@@ -4016,7 +4092,7 @@
       <c r="B17" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="80" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="82"/>
@@ -4035,12 +4111,12 @@
       <c r="B18" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="66" t="s">
         <v>104</v>
       </c>
@@ -4152,12 +4228,12 @@
       <c r="B24" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="68" t="s">
         <v>102</v>
       </c>
@@ -4171,12 +4247,12 @@
       <c r="B25" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="66" t="s">
         <v>102</v>
       </c>
@@ -4288,7 +4364,7 @@
       <c r="B31" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="80" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="82"/>
@@ -4307,12 +4383,12 @@
       <c r="B32" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="66" t="s">
         <v>105</v>
       </c>
@@ -4411,22 +4487,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4437,7 +4513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4524,7 +4600,7 @@
       <c r="B5" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="82"/>
@@ -4559,9 +4635,9 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>80</v>
@@ -4651,7 +4727,7 @@
       <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="80" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="82"/>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02404A1E-F1E9-42D9-976F-12DB7975DE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB52A9-6D74-4334-80EF-970632B99985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="135">
   <si>
     <t>Start Date</t>
   </si>
@@ -286,12 +286,6 @@
     <t>visualizar los productos que se adquirieron en una compra</t>
   </si>
   <si>
-    <t>Crear un formulario para poder visualizar los datos de los productos</t>
-  </si>
-  <si>
-    <t>Habilitar la Base de Datos para buscar la información de los productos</t>
-  </si>
-  <si>
     <t>Crear un formulario para poder realizar la busqueda de la compra</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
     <t>SR5-2</t>
   </si>
   <si>
-    <t>SR6</t>
-  </si>
-  <si>
     <t>Desarrollador</t>
   </si>
   <si>
@@ -488,6 +479,12 @@
   </si>
   <si>
     <t>Finalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear una funcion para validar la estacion del año </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma de decisiones </t>
   </si>
 </sst>
 </file>
@@ -1141,19 +1138,19 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3307,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3347,80 +3344,80 @@
     </row>
     <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>92</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
@@ -3440,7 +3437,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>37</v>
@@ -3466,7 +3463,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>37</v>
@@ -3492,7 +3489,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>37</v>
@@ -3518,7 +3515,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>37</v>
@@ -3544,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>37</v>
@@ -3570,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>37</v>
@@ -3596,18 +3593,18 @@
         <v>52</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>35</v>
@@ -3622,18 +3619,18 @@
         <v>54</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>35</v>
@@ -3648,96 +3645,96 @@
         <v>56</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H15" s="70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="81" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="82" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3785,28 +3782,28 @@
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>88</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3829,16 +3826,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+        <v>93</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="49">
@@ -3848,16 +3845,16 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="52">
@@ -3867,13 +3864,13 @@
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="65"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="65"/>
       <c r="H6" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="61">
         <f>SUM(I4:I5)</f>
@@ -3910,28 +3907,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3954,16 +3951,16 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
+        <v>95</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="53">
@@ -3973,16 +3970,16 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="49">
@@ -3992,10 +3989,10 @@
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="50"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
       <c r="I12" s="54"/>
@@ -4003,13 +4000,13 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13" s="61">
         <f>SUM(I10:I12)</f>
@@ -4046,28 +4043,28 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4090,16 +4087,16 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
+        <v>97</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="53">
@@ -4109,16 +4106,16 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="49">
@@ -4128,10 +4125,10 @@
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
       <c r="I19" s="52"/>
@@ -4145,7 +4142,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I20" s="61">
         <f>SUM(I17:I19)</f>
@@ -4182,28 +4179,28 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4226,16 +4223,16 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
+        <v>125</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="53">
@@ -4245,16 +4242,16 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="49">
@@ -4264,10 +4261,10 @@
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="50"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="67"/>
       <c r="H26" s="67"/>
       <c r="I26" s="52"/>
@@ -4281,7 +4278,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="61">
         <f>SUM(I24:I26)</f>
@@ -4318,28 +4315,28 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4362,16 +4359,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
+        <v>127</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="53">
@@ -4381,16 +4378,16 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
+        <v>128</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H32" s="66"/>
       <c r="I32" s="49">
@@ -4400,10 +4397,10 @@
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
       <c r="I33" s="52"/>
@@ -4417,7 +4414,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I34" s="61">
         <f>SUM(I31:I33)</f>
@@ -4430,7 +4427,7 @@
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="H36" s="56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I36" s="56">
         <f>I6+I13+I20+I27+I34</f>
@@ -4487,22 +4484,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4514,7 +4511,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4558,7 +4555,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>35</v>
@@ -4598,14 +4595,14 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
+        <v>79</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="45" t="s">
         <v>65</v>
       </c>
@@ -4616,10 +4613,10 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -4634,13 +4631,13 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" s="60">
         <f>SUM(I5:I6)</f>
@@ -4685,7 +4682,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>35</v>
@@ -4725,14 +4722,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+        <v>81</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="45" t="s">
         <v>66</v>
       </c>
@@ -4743,14 +4740,14 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+        <v>82</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="51" t="s">
         <v>66</v>
       </c>
@@ -4761,7 +4758,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14" s="58">
         <f>SUM(I12:I13)</f>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I15" s="55">
         <f>I7+I14</f>
@@ -4814,7 +4811,7 @@
         <v>44545</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -4822,7 +4819,7 @@
         <v>44576</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -4843,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -4873,7 +4870,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -4895,7 +4892,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4983,16 +4980,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" s="11">
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -5007,16 +5004,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="11">
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -5031,16 +5028,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="11">
         <v>7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -5055,16 +5052,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="11">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -5079,16 +5076,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="11">
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
@@ -5106,7 +5103,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5129,7 +5126,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5152,7 +5149,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5175,7 +5172,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5198,7 +5195,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB52A9-6D74-4334-80EF-970632B99985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FB7E10-D321-468C-8247-1EAAEC865BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,11 +1145,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3828,12 +3828,12 @@
       <c r="B4" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="63" t="s">
         <v>101</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="B10" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="85" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="87"/>
@@ -3972,12 +3972,12 @@
       <c r="B11" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="66" t="s">
         <v>99</v>
       </c>
@@ -4000,10 +4000,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>78</v>
@@ -4089,7 +4089,7 @@
       <c r="B17" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>113</v>
       </c>
       <c r="D17" s="87"/>
@@ -4108,12 +4108,12 @@
       <c r="B18" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="66" t="s">
         <v>102</v>
       </c>
@@ -4225,12 +4225,12 @@
       <c r="B24" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="68" t="s">
         <v>100</v>
       </c>
@@ -4244,12 +4244,12 @@
       <c r="B25" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="66" t="s">
         <v>100</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="B31" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="85" t="s">
         <v>114</v>
       </c>
       <c r="D31" s="87"/>
@@ -4380,12 +4380,12 @@
       <c r="B32" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="66" t="s">
         <v>103</v>
       </c>
@@ -4484,22 +4484,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4597,7 +4597,7 @@
       <c r="B5" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="87"/>
@@ -4632,9 +4632,9 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>78</v>
@@ -4724,7 +4724,7 @@
       <c r="B12" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="85" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="87"/>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FB7E10-D321-468C-8247-1EAAEC865BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86D93E-8DBE-4409-872D-08A669690283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="138">
   <si>
     <t>Start Date</t>
   </si>
@@ -286,12 +286,6 @@
     <t>visualizar los productos que se adquirieron en una compra</t>
   </si>
   <si>
-    <t>Crear un formulario para poder realizar la busqueda de la compra</t>
-  </si>
-  <si>
-    <t>Crear una sección que permita ingresar el codigo de la compra</t>
-  </si>
-  <si>
     <t>HU11</t>
   </si>
   <si>
@@ -485,6 +479,21 @@
   </si>
   <si>
     <t xml:space="preserve">Toma de decisiones </t>
+  </si>
+  <si>
+    <t>Notificacion</t>
+  </si>
+  <si>
+    <t>Saber la actividad del dispositivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comprobar que funciona de manera correcta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear un programa para notificar de la actividad diaria al cliente </t>
+  </si>
+  <si>
+    <t>Enviarla mediante correo electronico</t>
   </si>
 </sst>
 </file>
@@ -1145,11 +1154,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3305,13 +3314,13 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="51.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
@@ -3344,80 +3353,80 @@
     </row>
     <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>85</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
@@ -3437,7 +3446,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>37</v>
@@ -3463,7 +3472,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>37</v>
@@ -3489,7 +3498,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>37</v>
@@ -3515,7 +3524,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>37</v>
@@ -3541,7 +3550,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>37</v>
@@ -3567,7 +3576,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>37</v>
@@ -3593,18 +3602,18 @@
         <v>52</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>35</v>
@@ -3619,18 +3628,18 @@
         <v>54</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>35</v>
@@ -3645,96 +3654,122 @@
         <v>56</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>131</v>
-      </c>
       <c r="F16" s="81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="82" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3782,28 +3817,28 @@
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3826,16 +3861,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
+        <v>91</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="49">
@@ -3845,7 +3880,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>64</v>
@@ -3854,7 +3889,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
       <c r="G5" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="52">
@@ -3870,7 +3905,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="65"/>
       <c r="H6" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="61">
         <f>SUM(I4:I5)</f>
@@ -3907,28 +3942,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3951,16 +3986,16 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>112</v>
+        <v>93</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>110</v>
       </c>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
       <c r="G10" s="66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="53">
@@ -3970,16 +4005,16 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="49">
@@ -4000,13 +4035,13 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="61">
         <f>SUM(I10:I12)</f>
@@ -4043,28 +4078,28 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4087,16 +4122,16 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>111</v>
       </c>
       <c r="D17" s="87"/>
       <c r="E17" s="87"/>
       <c r="F17" s="87"/>
       <c r="G17" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="53">
@@ -4106,16 +4141,16 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="49">
@@ -4142,7 +4177,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" s="61">
         <f>SUM(I17:I19)</f>
@@ -4179,28 +4214,28 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4223,16 +4258,16 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
+        <v>123</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="53">
@@ -4242,16 +4277,16 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="49">
@@ -4278,7 +4313,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I27" s="61">
         <f>SUM(I24:I26)</f>
@@ -4315,28 +4350,28 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4359,16 +4394,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>112</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
       <c r="F31" s="87"/>
       <c r="G31" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="53">
@@ -4378,16 +4413,16 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
+        <v>126</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="66"/>
       <c r="I32" s="49">
@@ -4414,7 +4449,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I34" s="61">
         <f>SUM(I31:I33)</f>
@@ -4427,7 +4462,7 @@
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="H36" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I36" s="56">
         <f>I6+I13+I20+I27+I34</f>
@@ -4484,22 +4519,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4511,7 +4546,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4555,7 +4590,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>35</v>
@@ -4595,10 +4630,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>133</v>
+        <v>77</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>131</v>
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
@@ -4613,10 +4648,10 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
@@ -4632,12 +4667,12 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="60">
         <f>SUM(I5:I6)</f>
@@ -4682,7 +4717,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>35</v>
@@ -4722,10 +4757,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>136</v>
       </c>
       <c r="D12" s="87"/>
       <c r="E12" s="87"/>
@@ -4740,10 +4775,10 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
@@ -4758,7 +4793,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="58">
         <f>SUM(I12:I13)</f>
@@ -4767,7 +4802,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" s="55">
         <f>I7+I14</f>
@@ -4811,7 +4846,7 @@
         <v>44545</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -4819,7 +4854,7 @@
         <v>44576</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -4840,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -4870,7 +4905,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -4892,7 +4927,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4980,16 +5015,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" s="11">
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -5004,16 +5039,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="11">
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -5028,16 +5063,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="11">
         <v>7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -5052,16 +5087,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="11">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -5076,16 +5111,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="11">
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
@@ -5103,7 +5138,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5126,7 +5161,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5149,7 +5184,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5172,7 +5207,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5195,7 +5230,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86D93E-8DBE-4409-872D-08A669690283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA468B-3E2F-42A0-BE2A-36602EC80117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4546,7 +4546,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="53">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="I7" s="60">
         <f>SUM(I5:I6)</f>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="53">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="I14" s="58">
         <f>SUM(I12:I13)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="I15" s="55">
         <f>I7+I14</f>
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA468B-3E2F-42A0-BE2A-36602EC80117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C720476F-11A2-4AFD-92EF-51F4318E80A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="137">
   <si>
     <t>Start Date</t>
   </si>
@@ -277,12 +277,6 @@
     <t>Validación de datos</t>
   </si>
   <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
     <t>visualizar los productos que se adquirieron en una compra</t>
   </si>
   <si>
@@ -494,6 +488,9 @@
   </si>
   <si>
     <t>Enviarla mediante correo electronico</t>
+  </si>
+  <si>
+    <t>Rafa</t>
   </si>
 </sst>
 </file>
@@ -3353,80 +3350,80 @@
     </row>
     <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>88</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
@@ -3446,7 +3443,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>37</v>
@@ -3472,7 +3469,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>37</v>
@@ -3498,7 +3495,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>37</v>
@@ -3524,7 +3521,7 @@
         <v>46</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>37</v>
@@ -3550,7 +3547,7 @@
         <v>48</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>37</v>
@@ -3576,7 +3573,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>37</v>
@@ -3602,18 +3599,18 @@
         <v>52</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>35</v>
@@ -3628,18 +3625,18 @@
         <v>54</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>35</v>
@@ -3654,122 +3651,122 @@
         <v>56</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>129</v>
-      </c>
       <c r="F16" s="81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" s="82" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>135</v>
-      </c>
       <c r="F17" s="81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3814,28 @@
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3861,16 +3858,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
       <c r="G4" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="49">
@@ -3880,7 +3877,7 @@
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>64</v>
@@ -3889,7 +3886,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
       <c r="G5" s="64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="52">
@@ -3905,7 +3902,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="65"/>
       <c r="H6" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="61">
         <f>SUM(I4:I5)</f>
@@ -3942,28 +3939,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>88</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3986,16 +3983,16 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
       <c r="G10" s="66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="53">
@@ -4005,7 +4002,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="88" t="s">
         <v>64</v>
@@ -4014,7 +4011,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
       <c r="G11" s="66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="49">
@@ -4041,7 +4038,7 @@
       <c r="F13" s="85"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="61">
         <f>SUM(I10:I12)</f>
@@ -4078,28 +4075,28 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4122,16 +4119,16 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" s="87"/>
       <c r="E17" s="87"/>
       <c r="F17" s="87"/>
       <c r="G17" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="53">
@@ -4141,7 +4138,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="88" t="s">
         <v>64</v>
@@ -4150,7 +4147,7 @@
       <c r="E18" s="89"/>
       <c r="F18" s="89"/>
       <c r="G18" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="49">
@@ -4177,7 +4174,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" s="61">
         <f>SUM(I17:I19)</f>
@@ -4214,28 +4211,28 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4258,16 +4255,16 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="86"/>
       <c r="E24" s="86"/>
       <c r="F24" s="86"/>
       <c r="G24" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="53">
@@ -4277,7 +4274,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="88" t="s">
         <v>64</v>
@@ -4286,7 +4283,7 @@
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
       <c r="G25" s="66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="49">
@@ -4313,7 +4310,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I27" s="61">
         <f>SUM(I24:I26)</f>
@@ -4350,28 +4347,28 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4394,16 +4391,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
       <c r="F31" s="87"/>
       <c r="G31" s="68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="53">
@@ -4413,16 +4410,16 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" s="89"/>
       <c r="E32" s="89"/>
       <c r="F32" s="89"/>
       <c r="G32" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H32" s="66"/>
       <c r="I32" s="49">
@@ -4449,7 +4446,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I34" s="61">
         <f>SUM(I31:I33)</f>
@@ -4462,7 +4459,7 @@
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="H36" s="56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I36" s="56">
         <f>I6+I13+I20+I27+I34</f>
@@ -4546,7 +4543,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4590,7 +4587,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>35</v>
@@ -4602,7 +4599,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="20" t="s">
@@ -4630,16 +4627,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
       <c r="F5" s="87"/>
       <c r="G5" s="45" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="53">
@@ -4648,16 +4645,16 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52">
@@ -4672,7 +4669,7 @@
       <c r="F7" s="85"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7" s="60">
         <f>SUM(I5:I6)</f>
@@ -4717,7 +4714,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>35</v>
@@ -4757,16 +4754,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="87"/>
       <c r="E12" s="87"/>
       <c r="F12" s="87"/>
       <c r="G12" s="45" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="53">
@@ -4775,16 +4772,16 @@
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
       <c r="F13" s="84"/>
       <c r="G13" s="51" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="52">
@@ -4793,7 +4790,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" s="58">
         <f>SUM(I12:I13)</f>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I15" s="55">
         <f>I7+I14</f>
@@ -4846,7 +4843,7 @@
         <v>44545</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -4854,7 +4851,7 @@
         <v>44576</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -4875,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -4905,7 +4902,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -4927,7 +4924,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -5015,16 +5012,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="11">
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -5039,16 +5036,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="11">
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -5063,16 +5060,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="11">
         <v>7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -5087,16 +5084,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="11">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -5111,16 +5108,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="11">
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
@@ -5138,7 +5135,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5161,7 +5158,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5184,7 +5181,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5207,7 +5204,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
@@ -5230,7 +5227,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C720476F-11A2-4AFD-92EF-51F4318E80A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D130D351-4B4D-4BDC-8774-A81AA57B5D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -2034,34 +2034,34 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>-53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>-69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>-85</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>-101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>-117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4822,7 +4822,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4890,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -4899,7 +4899,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>117</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B9" s="3">
         <f>(B4-B5)*B8*B7*8</f>
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B10" s="3">
         <f>IFERROR(B9/B4,0)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>116</v>
@@ -5265,7 +5265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="C4" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D4" s="16">
         <v>42</v>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C5" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D5" s="16">
         <v>42</v>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="C6" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>31</v>
+        <v>-5</v>
       </c>
       <c r="D6" s="16">
         <v>40</v>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="C7" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>27</v>
+        <v>-21</v>
       </c>
       <c r="D7" s="16">
         <v>36</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C8" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>23</v>
+        <v>-37</v>
       </c>
       <c r="D8" s="16">
         <v>36</v>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C9" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>19</v>
+        <v>-53</v>
       </c>
       <c r="D9" s="16">
         <v>36</v>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C10" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>15</v>
+        <v>-69</v>
       </c>
       <c r="D10" s="16">
         <v>36</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="C11" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>11</v>
+        <v>-85</v>
       </c>
       <c r="D11" s="16">
         <v>36</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C12" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>7</v>
+        <v>-101</v>
       </c>
       <c r="D12" s="16">
         <v>36</v>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C13" s="15">
         <f>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</f>
-        <v>3</v>
+        <v>-117</v>
       </c>
       <c r="D13" s="16">
         <v>36</v>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D130D351-4B4D-4BDC-8774-A81AA57B5D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8AF14-A623-4E47-B1E1-4779C5098E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="138">
   <si>
     <t>Start Date</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>Rafa</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1151,11 +1154,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,6 +1166,132 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1247,24 +1376,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1295,24 +1406,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1352,24 +1445,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1400,24 +1475,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1457,24 +1514,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1508,24 +1547,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1541,24 +1562,6 @@
           <color indexed="64"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3012,34 +3015,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[[#This Row],[Work Day]]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
       <calculatedColumnFormula>TotalHours-(Table3[[#This Row],[Work Day]]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3860,12 +3863,12 @@
       <c r="B4" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="63" t="s">
         <v>97</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="B10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="85" t="s">
         <v>108</v>
       </c>
       <c r="D10" s="87"/>
@@ -4004,12 +4007,12 @@
       <c r="B11" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="66" t="s">
         <v>95</v>
       </c>
@@ -4032,10 +4035,10 @@
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="18"/>
       <c r="H13" s="57" t="s">
         <v>74</v>
@@ -4121,7 +4124,7 @@
       <c r="B17" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="87"/>
@@ -4140,12 +4143,12 @@
       <c r="B18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="66" t="s">
         <v>98</v>
       </c>
@@ -4257,12 +4260,12 @@
       <c r="B24" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="68" t="s">
         <v>96</v>
       </c>
@@ -4276,12 +4279,12 @@
       <c r="B25" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="66" t="s">
         <v>96</v>
       </c>
@@ -4393,7 +4396,7 @@
       <c r="B31" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="85" t="s">
         <v>110</v>
       </c>
       <c r="D31" s="87"/>
@@ -4412,12 +4415,12 @@
       <c r="B32" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="66" t="s">
         <v>99</v>
       </c>
@@ -4516,22 +4519,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4629,7 +4632,7 @@
       <c r="B5" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="87"/>
@@ -4664,9 +4667,9 @@
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59" t="s">
         <v>74</v>
@@ -4756,7 +4759,7 @@
       <c r="B12" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="85" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="87"/>
@@ -4961,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5021,7 +5024,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -5045,7 +5048,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -5069,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -5265,7 +5268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Backlog_Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Documents\GitHub\proyecto-riego\Backlog_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8AF14-A623-4E47-B1E1-4779C5098E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A7D28-D76F-4909-AFEE-94C5F5AB082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4965,7 +4965,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5021,7 +5021,7 @@
         <v>97</v>
       </c>
       <c r="F3" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>137</v>
@@ -5045,7 +5045,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>137</v>
@@ -5069,7 +5069,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>137</v>
@@ -5093,7 +5093,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>111</v>
@@ -5117,7 +5117,7 @@
         <v>99</v>
       </c>
       <c r="F7" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>112</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="F13" s="3">
         <f>SUBTOTAL(109,SprintBacklog[Remaining Hours])</f>
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
